--- a/Unterrichtsstunden/Stex/Anhang_Evaluation/Klassenstufe_7/Stunde_2_Evaluation.xlsx
+++ b/Unterrichtsstunden/Stex/Anhang_Evaluation/Klassenstufe_7/Stunde_2_Evaluation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Leipzig\A_Staatsexamen\Tira_School\Unterrichtsstunden\Stex\Evaluation\Klassenstufe_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Leipzig\A_Staatsexamen\Tira_School\Unterrichtsstunden\Stex\Anhang_Evaluation\Klassenstufe_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE321F0-F629-41FA-81B4-A27C0CE23EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED9E9A8-BDC8-4025-B50E-32FC2CAB353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>👍</t>
   </si>
   <si>
-    <t>Die Bedienung von Teachable machine ist verständlich.</t>
-  </si>
-  <si>
     <t>Die Aufgaben konnte ich gut lösen.</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Hast du noch etwas anzumerken? Hier kannst du hinschreiben, was du zum Thema noch sagen möchtest.</t>
+  </si>
+  <si>
+    <t>Die Bedienung der Webseite ist verständlich.</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -559,46 +559,46 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
-        <v>38</v>
-      </c>
       <c r="Q1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
         <v>5</v>
       </c>
       <c r="S1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="Q7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R7">
         <v>2</v>
